--- a/www/IndicatorsPerCountry/DominicanRepublic_GDPperCapita_TerritorialRef_1946_2012_CCode_214.xlsx
+++ b/www/IndicatorsPerCountry/DominicanRepublic_GDPperCapita_TerritorialRef_1946_2012_CCode_214.xlsx
@@ -246,13 +246,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/DominicanRepublic_GDPperCapita_TerritorialRef_1946_2012_CCode_214.xlsx
+++ b/www/IndicatorsPerCountry/DominicanRepublic_GDPperCapita_TerritorialRef_1946_2012_CCode_214.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,187 +36,205 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1027</t>
-  </si>
-  <si>
-    <t>1117</t>
-  </si>
-  <si>
-    <t>1172</t>
-  </si>
-  <si>
-    <t>1123</t>
-  </si>
-  <si>
-    <t>1150</t>
-  </si>
-  <si>
-    <t>1183</t>
-  </si>
-  <si>
-    <t>1260</t>
-  </si>
-  <si>
-    <t>1296</t>
-  </si>
-  <si>
-    <t>1320</t>
-  </si>
-  <si>
-    <t>1284</t>
-  </si>
-  <si>
-    <t>1302</t>
-  </si>
-  <si>
-    <t>1232</t>
-  </si>
-  <si>
-    <t>1394</t>
-  </si>
-  <si>
-    <t>1437</t>
-  </si>
-  <si>
-    <t>1484</t>
-  </si>
-  <si>
-    <t>1259</t>
-  </si>
-  <si>
-    <t>1384</t>
-  </si>
-  <si>
-    <t>1387</t>
-  </si>
-  <si>
-    <t>1349</t>
-  </si>
-  <si>
-    <t>1453</t>
-  </si>
-  <si>
-    <t>1561</t>
-  </si>
-  <si>
-    <t>1680</t>
-  </si>
-  <si>
-    <t>1837</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2067</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2198</t>
-  </si>
-  <si>
-    <t>2250</t>
-  </si>
-  <si>
-    <t>2248</t>
-  </si>
-  <si>
-    <t>2289</t>
-  </si>
-  <si>
-    <t>2372</t>
-  </si>
-  <si>
-    <t>2413</t>
-  </si>
-  <si>
-    <t>2400</t>
-  </si>
-  <si>
-    <t>2450</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2292</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2432</t>
-  </si>
-  <si>
-    <t>2397</t>
-  </si>
-  <si>
-    <t>2647</t>
-  </si>
-  <si>
-    <t>2471.12805308</t>
-  </si>
-  <si>
-    <t>2445.71687227</t>
-  </si>
-  <si>
-    <t>2652.12997586</t>
-  </si>
-  <si>
-    <t>2793.84596497</t>
-  </si>
-  <si>
-    <t>2809.51562676</t>
-  </si>
-  <si>
-    <t>2912.3518198</t>
-  </si>
-  <si>
-    <t>3064.74194382</t>
-  </si>
-  <si>
-    <t>3252.01791714</t>
-  </si>
-  <si>
-    <t>3419.49327079</t>
-  </si>
-  <si>
-    <t>3586.45245457</t>
-  </si>
-  <si>
-    <t>3725.01614871</t>
-  </si>
-  <si>
-    <t>3728.73134025</t>
-  </si>
-  <si>
-    <t>3879.98465075</t>
-  </si>
-  <si>
-    <t>3809.39410665</t>
-  </si>
-  <si>
-    <t>3801.33752602</t>
-  </si>
-  <si>
-    <t>4093.58477553</t>
-  </si>
-  <si>
-    <t>4466.78150506</t>
-  </si>
-  <si>
-    <t>4777.88953254</t>
-  </si>
-  <si>
-    <t>4959.57243333</t>
-  </si>
-  <si>
-    <t>5060.67123292</t>
-  </si>
-  <si>
-    <t>5379.08736267</t>
+    <t>1637</t>
+  </si>
+  <si>
+    <t>1780</t>
+  </si>
+  <si>
+    <t>1868</t>
+  </si>
+  <si>
+    <t>1790</t>
+  </si>
+  <si>
+    <t>1833</t>
+  </si>
+  <si>
+    <t>1886</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2066</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2075</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>2291</t>
+  </si>
+  <si>
+    <t>2365</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2150</t>
+  </si>
+  <si>
+    <t>2316</t>
+  </si>
+  <si>
+    <t>2488</t>
+  </si>
+  <si>
+    <t>2678</t>
+  </si>
+  <si>
+    <t>2928</t>
+  </si>
+  <si>
+    <t>3196</t>
+  </si>
+  <si>
+    <t>3295</t>
+  </si>
+  <si>
+    <t>3365</t>
+  </si>
+  <si>
+    <t>3504</t>
+  </si>
+  <si>
+    <t>3586</t>
+  </si>
+  <si>
+    <t>3583</t>
+  </si>
+  <si>
+    <t>3649</t>
+  </si>
+  <si>
+    <t>3781</t>
+  </si>
+  <si>
+    <t>3846</t>
+  </si>
+  <si>
+    <t>3826</t>
+  </si>
+  <si>
+    <t>3905</t>
+  </si>
+  <si>
+    <t>3830</t>
+  </si>
+  <si>
+    <t>3653</t>
+  </si>
+  <si>
+    <t>3682</t>
+  </si>
+  <si>
+    <t>3877</t>
+  </si>
+  <si>
+    <t>3821</t>
+  </si>
+  <si>
+    <t>4219</t>
+  </si>
+  <si>
+    <t>3939</t>
+  </si>
+  <si>
+    <t>3969.56867380379</t>
+  </si>
+  <si>
+    <t>4185.40593822095</t>
+  </si>
+  <si>
+    <t>4490.01622077702</t>
+  </si>
+  <si>
+    <t>4597.15081760226</t>
+  </si>
+  <si>
+    <t>4851.62876552566</t>
+  </si>
+  <si>
+    <t>5198.56664916418</t>
+  </si>
+  <si>
+    <t>5616.88992165113</t>
+  </si>
+  <si>
+    <t>6012.69255026626</t>
+  </si>
+  <si>
+    <t>6419.78109287858</t>
+  </si>
+  <si>
+    <t>6788.0838992463</t>
+  </si>
+  <si>
+    <t>6917.03038105384</t>
+  </si>
+  <si>
+    <t>7327.36595752144</t>
+  </si>
+  <si>
+    <t>7324.69734804766</t>
+  </si>
+  <si>
+    <t>7441.44762923987</t>
+  </si>
+  <si>
+    <t>8156.4309532226</t>
+  </si>
+  <si>
+    <t>9059.88442531908</t>
+  </si>
+  <si>
+    <t>9866.45803030943</t>
+  </si>
+  <si>
+    <t>10225.5288424606</t>
+  </si>
+  <si>
+    <t>10365.6748748019</t>
+  </si>
+  <si>
+    <t>11276.4608119942</t>
+  </si>
+  <si>
+    <t>11679</t>
+  </si>
+  <si>
+    <t>11848</t>
+  </si>
+  <si>
+    <t>12251</t>
+  </si>
+  <si>
+    <t>13017</t>
+  </si>
+  <si>
+    <t>13762</t>
+  </si>
+  <si>
+    <t>14489</t>
   </si>
   <si>
     <t>Description</t>
@@ -1357,6 +1375,108 @@
         <v>67</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1372,50 +1492,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
